--- a/WebUI/Files/Templates/Входящая корреспонденция.xlsx
+++ b/WebUI/Files/Templates/Входящая корреспонденция.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="!Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Заявки" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +70,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +110,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +150,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -336,6 +337,21 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
